--- a/media_worksheet.xlsx
+++ b/media_worksheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filippo/Documents/R_wd/r_packages/adloadr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F6F464-3C97-EC42-8C20-536B0613D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52E2D7-5E16-BF46-AE69-FB4AE3084544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23800" windowHeight="12440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23800" windowHeight="12440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="national_tv" sheetId="1" r:id="rId1"/>
-    <sheet name="local_tv" sheetId="2" r:id="rId2"/>
+    <sheet name="network_tv" sheetId="1" r:id="rId1"/>
+    <sheet name="spot_tv" sheetId="2" r:id="rId2"/>
     <sheet name="magazine" sheetId="3" r:id="rId3"/>
     <sheet name="fsi_coupon" sheetId="4" r:id="rId4"/>
     <sheet name="newspaper" sheetId="5" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="203">
   <si>
     <t>AdDate</t>
   </si>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>Length of TV commercial in seconds. Also known as “Copy Length.”  Ex: 15, 30, 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-15</t>
   </si>
   <si>
     <t>The advertisement code Ex: 11339LRS07</t>
@@ -673,10 +669,10 @@
     <t>magazine</t>
   </si>
   <si>
-    <t>local_tv</t>
-  </si>
-  <si>
-    <t>national_tv</t>
+    <t>network_tv</t>
+  </si>
+  <si>
+    <t>spot_tv</t>
   </si>
 </sst>
 </file>
@@ -760,11 +756,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -774,6 +767,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,41 +1093,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="7" customWidth="1"/>
     <col min="5" max="5" width="177.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6">
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1132,13 +1140,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -1146,13 +1157,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -1160,13 +1174,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
       <c r="E5" t="s">
@@ -1174,13 +1191,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -1188,13 +1208,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
@@ -1202,13 +1225,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -1216,13 +1242,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -1230,13 +1259,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
@@ -1244,27 +1276,33 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
       <c r="E12" t="s">
@@ -1272,13 +1310,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>15</v>
       </c>
       <c r="E13" t="s">
@@ -1286,13 +1327,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>10</v>
       </c>
       <c r="E14" t="s">
@@ -1300,13 +1344,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
@@ -1314,212 +1361,257 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
       <c r="B28" t="s">
         <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1538,14 +1630,17 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.5" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1553,49 +1648,58 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="9">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -1603,13 +1707,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>10</v>
       </c>
       <c r="E5" t="s">
@@ -1617,27 +1724,33 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
       <c r="E7" t="s">
@@ -1645,185 +1758,224 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
       <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>172</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>110</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
       <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="9">
+        <v>255</v>
+      </c>
+      <c r="E10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="9">
         <v>255</v>
       </c>
-      <c r="E10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>176</v>
       </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11">
-        <v>255</v>
-      </c>
-      <c r="E11" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>178</v>
+      <c r="D12" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
         <v>179</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>181</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>184</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>186</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>188</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
         <v>190</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
+    </row>
+    <row r="20" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="126" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="E20" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1840,38 +1992,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>202</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6">
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1879,13 +2037,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -1893,13 +2054,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -1907,13 +2071,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
       <c r="E5" t="s">
@@ -1921,13 +2088,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -1935,13 +2105,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
@@ -1949,13 +2122,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -1963,69 +2139,84 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
       <c r="E13" t="s">
@@ -2033,143 +2224,173 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
       </c>
       <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2186,13 +2407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2204,10 +2427,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2218,10 +2444,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2232,10 +2461,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -2250,6 +2482,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -2264,6 +2499,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2274,10 +2512,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2288,10 +2529,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2306,6 +2550,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2567,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>99</v>
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2330,12 +2580,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2344,40 +2597,49 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="280" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="280" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2385,27 +2647,33 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
+      <c r="E14" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>110</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="154" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2413,13 +2681,16 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2428,12 +2699,15 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -2442,12 +2716,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2456,10 +2733,13 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -2470,26 +2750,32 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
       </c>
       <c r="D21">
         <v>82</v>
       </c>
       <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>123</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2498,21 +2784,24 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2529,13 +2818,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2547,10 +2838,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2561,10 +2855,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2575,10 +2872,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -2593,6 +2893,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -2607,6 +2910,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2617,10 +2923,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2635,20 +2944,26 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>110</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -2663,11 +2978,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2677,36 +2995,45 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
         <v>128</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
         <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2715,12 +3042,15 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2729,7 +3059,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2746,13 +3076,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2764,10 +3096,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2778,10 +3113,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2792,10 +3130,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -2810,6 +3151,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -2824,6 +3168,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -2834,10 +3181,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2852,6 +3202,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -2866,11 +3219,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2880,22 +3236,28 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2904,35 +3266,41 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="E13" t="s">
         <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2949,13 +3317,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2967,10 +3337,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2981,10 +3354,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2995,10 +3371,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -3013,6 +3392,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -3027,6 +3409,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3037,10 +3422,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -3055,20 +3443,26 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>110</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -3083,8 +3477,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -3093,10 +3490,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -3107,10 +3507,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -3121,10 +3524,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -3135,28 +3541,31 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3172,7 +3581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3181,7 +3592,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3193,10 +3604,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3207,10 +3621,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3221,10 +3638,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -3239,6 +3659,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -3253,6 +3676,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3263,10 +3689,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -3281,20 +3710,26 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>110</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -3309,17 +3744,20 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
       <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3334,123 +3772,182 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
       <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" t="s">
         <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3467,13 +3964,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3485,10 +3984,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3499,10 +4001,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3513,10 +4018,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -3531,6 +4039,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -3545,6 +4056,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3555,24 +4069,30 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -3587,6 +4107,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3597,12 +4120,15 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -3611,54 +4137,66 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>164</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3667,7 +4205,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
